--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3557397.819607259</v>
+        <v>3552407.315114429</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10202060.10315924</v>
+        <v>10202900.1796467</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>580794.9275113635</v>
+        <v>579530.7621618488</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7639339.087791601</v>
+        <v>7639352.258697258</v>
       </c>
     </row>
     <row r="11">
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,67 +1217,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>5.309829763041575</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="X9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>6.876045741711437</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.33498035419292</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>30.73701953671848</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.28335468581409</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1438,7 +1438,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124504</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1609,13 +1609,13 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>155.129263920739</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1669,7 +1669,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>274.8928596872507</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>317.2019409719034</v>
+        <v>316.4526501194719</v>
       </c>
       <c r="C17" t="n">
-        <v>299.7409910794304</v>
+        <v>298.9917002269989</v>
       </c>
       <c r="D17" t="n">
-        <v>289.1511409291057</v>
+        <v>288.4018500766743</v>
       </c>
       <c r="E17" t="n">
-        <v>316.3984693806846</v>
+        <v>315.6491785282531</v>
       </c>
       <c r="F17" t="n">
-        <v>341.3441450501342</v>
+        <v>340.5948541977028</v>
       </c>
       <c r="G17" t="n">
-        <v>333.311605603822</v>
+        <v>344.6405341094448</v>
       </c>
       <c r="H17" t="n">
-        <v>229.0758636957432</v>
+        <v>228.3265728433118</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>43.65586109659861</v>
+        <v>42.90657024416755</v>
       </c>
       <c r="T17" t="n">
-        <v>138.3860694480429</v>
+        <v>137.6367785956115</v>
       </c>
       <c r="U17" t="n">
-        <v>185.4632712673248</v>
+        <v>184.7139804148933</v>
       </c>
       <c r="V17" t="n">
-        <v>262.2203577785577</v>
+        <v>261.4710669261262</v>
       </c>
       <c r="W17" t="n">
-        <v>283.7090680258358</v>
+        <v>282.9597771734043</v>
       </c>
       <c r="X17" t="n">
-        <v>304.1991999868918</v>
+        <v>303.4499091344604</v>
       </c>
       <c r="Y17" t="n">
-        <v>320.7060379644764</v>
+        <v>319.9567471120449</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414546</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.3000794903601</v>
+        <v>113.5507886379286</v>
       </c>
       <c r="C19" t="n">
-        <v>101.7149204070506</v>
+        <v>100.9656295546192</v>
       </c>
       <c r="D19" t="n">
-        <v>83.08357232663516</v>
+        <v>82.33428147420369</v>
       </c>
       <c r="E19" t="n">
-        <v>80.90206195499198</v>
+        <v>80.15277110256051</v>
       </c>
       <c r="F19" t="n">
-        <v>79.88914733135405</v>
+        <v>79.13985647892258</v>
       </c>
       <c r="G19" t="n">
-        <v>100.493907567451</v>
+        <v>99.74461671501956</v>
       </c>
       <c r="H19" t="n">
-        <v>79.22311422274359</v>
+        <v>78.47382337031212</v>
       </c>
       <c r="I19" t="n">
-        <v>30.82051971826089</v>
+        <v>30.07122886582942</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>23.40025197847012</v>
+        <v>22.65096112603865</v>
       </c>
       <c r="S19" t="n">
-        <v>124.2371246398647</v>
+        <v>123.4878337874332</v>
       </c>
       <c r="T19" t="n">
-        <v>154.017048584592</v>
+        <v>153.2677577321605</v>
       </c>
       <c r="U19" t="n">
-        <v>220.6799375140357</v>
+        <v>219.9306466616042</v>
       </c>
       <c r="V19" t="n">
-        <v>186.6057426322508</v>
+        <v>185.8564517798193</v>
       </c>
       <c r="W19" t="n">
-        <v>220.9910976450138</v>
+        <v>220.2418067925823</v>
       </c>
       <c r="X19" t="n">
-        <v>160.17775469746</v>
+        <v>159.4284638450285</v>
       </c>
       <c r="Y19" t="n">
-        <v>153.0527526605176</v>
+        <v>152.3034618080861</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>317.2019409719034</v>
+        <v>316.4526501194719</v>
       </c>
       <c r="C20" t="n">
-        <v>299.7409910794304</v>
+        <v>298.9917002269989</v>
       </c>
       <c r="D20" t="n">
-        <v>289.1511409291057</v>
+        <v>288.4018500766743</v>
       </c>
       <c r="E20" t="n">
-        <v>316.3984693806846</v>
+        <v>315.6491785282531</v>
       </c>
       <c r="F20" t="n">
-        <v>341.3441450501342</v>
+        <v>340.5948541977028</v>
       </c>
       <c r="G20" t="n">
-        <v>345.3898249618762</v>
+        <v>344.6405341094448</v>
       </c>
       <c r="H20" t="n">
-        <v>229.0758636957432</v>
+        <v>228.3265728433118</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>43.65586109659861</v>
+        <v>42.90657024416755</v>
       </c>
       <c r="T20" t="n">
-        <v>138.3860694480429</v>
+        <v>137.6367785956115</v>
       </c>
       <c r="U20" t="n">
-        <v>173.3850519092707</v>
+        <v>184.7139804148933</v>
       </c>
       <c r="V20" t="n">
-        <v>262.2203577785577</v>
+        <v>261.4710669261262</v>
       </c>
       <c r="W20" t="n">
-        <v>283.7090680258358</v>
+        <v>282.9597771734043</v>
       </c>
       <c r="X20" t="n">
-        <v>304.1991999868918</v>
+        <v>303.4499091344604</v>
       </c>
       <c r="Y20" t="n">
-        <v>320.7060379644764</v>
+        <v>319.9567471120449</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414546</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.3000794903601</v>
+        <v>113.5507886379286</v>
       </c>
       <c r="C22" t="n">
-        <v>101.7149204070506</v>
+        <v>100.9656295546192</v>
       </c>
       <c r="D22" t="n">
-        <v>83.08357232663516</v>
+        <v>82.33428147420369</v>
       </c>
       <c r="E22" t="n">
-        <v>80.90206195499198</v>
+        <v>80.15277110256051</v>
       </c>
       <c r="F22" t="n">
-        <v>79.88914733135405</v>
+        <v>79.13985647892258</v>
       </c>
       <c r="G22" t="n">
-        <v>100.493907567451</v>
+        <v>99.74461671501956</v>
       </c>
       <c r="H22" t="n">
-        <v>79.22311422274359</v>
+        <v>78.47382337031212</v>
       </c>
       <c r="I22" t="n">
-        <v>30.82051971826089</v>
+        <v>30.07122886582942</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>23.40025197847012</v>
+        <v>22.65096112603865</v>
       </c>
       <c r="S22" t="n">
-        <v>124.2371246398647</v>
+        <v>123.4878337874332</v>
       </c>
       <c r="T22" t="n">
-        <v>154.017048584592</v>
+        <v>153.2677577321605</v>
       </c>
       <c r="U22" t="n">
-        <v>220.6799375140357</v>
+        <v>219.9306466616042</v>
       </c>
       <c r="V22" t="n">
-        <v>186.6057426322508</v>
+        <v>185.8564517798193</v>
       </c>
       <c r="W22" t="n">
-        <v>220.9910976450138</v>
+        <v>220.2418067925823</v>
       </c>
       <c r="X22" t="n">
-        <v>160.17775469746</v>
+        <v>159.4284638450285</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.0527526605176</v>
+        <v>152.3034618080861</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>317.2019409719034</v>
+        <v>316.4526501194719</v>
       </c>
       <c r="C23" t="n">
-        <v>299.7409910794304</v>
+        <v>298.9917002269989</v>
       </c>
       <c r="D23" t="n">
-        <v>289.1511409291057</v>
+        <v>288.4018500766743</v>
       </c>
       <c r="E23" t="n">
-        <v>316.3984693806846</v>
+        <v>315.6491785282531</v>
       </c>
       <c r="F23" t="n">
-        <v>341.3441450501342</v>
+        <v>340.5948541977028</v>
       </c>
       <c r="G23" t="n">
-        <v>345.3898249618762</v>
+        <v>344.6405341094448</v>
       </c>
       <c r="H23" t="n">
-        <v>229.0758636957433</v>
+        <v>228.3265728433118</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>43.65586109659861</v>
+        <v>42.90657024416714</v>
       </c>
       <c r="T23" t="n">
-        <v>138.3860694480429</v>
+        <v>137.6367785956115</v>
       </c>
       <c r="U23" t="n">
-        <v>185.4632712673253</v>
+        <v>184.7139804148936</v>
       </c>
       <c r="V23" t="n">
-        <v>262.2203577785577</v>
+        <v>261.4710669261262</v>
       </c>
       <c r="W23" t="n">
-        <v>283.7090680258358</v>
+        <v>282.9597771734043</v>
       </c>
       <c r="X23" t="n">
-        <v>304.1991999868918</v>
+        <v>303.4499091344604</v>
       </c>
       <c r="Y23" t="n">
-        <v>320.7060379644764</v>
+        <v>319.9567471120449</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>114.3000794903601</v>
+        <v>113.5507886379286</v>
       </c>
       <c r="C25" t="n">
-        <v>101.7149204070506</v>
+        <v>100.9656295546192</v>
       </c>
       <c r="D25" t="n">
-        <v>83.08357232663516</v>
+        <v>82.33428147420369</v>
       </c>
       <c r="E25" t="n">
-        <v>80.90206195499198</v>
+        <v>80.15277110256051</v>
       </c>
       <c r="F25" t="n">
-        <v>79.88914733135405</v>
+        <v>79.13985647892258</v>
       </c>
       <c r="G25" t="n">
-        <v>100.493907567451</v>
+        <v>99.74461671501956</v>
       </c>
       <c r="H25" t="n">
-        <v>79.22311422274359</v>
+        <v>78.47382337031212</v>
       </c>
       <c r="I25" t="n">
-        <v>30.82051971826089</v>
+        <v>30.07122886582942</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>23.40025197847012</v>
+        <v>22.65096112603865</v>
       </c>
       <c r="S25" t="n">
-        <v>124.2371246398647</v>
+        <v>123.4878337874332</v>
       </c>
       <c r="T25" t="n">
-        <v>154.017048584592</v>
+        <v>153.2677577321605</v>
       </c>
       <c r="U25" t="n">
-        <v>220.6799375140357</v>
+        <v>219.9306466616042</v>
       </c>
       <c r="V25" t="n">
-        <v>186.6057426322508</v>
+        <v>185.8564517798193</v>
       </c>
       <c r="W25" t="n">
-        <v>220.9910976450138</v>
+        <v>220.2418067925823</v>
       </c>
       <c r="X25" t="n">
-        <v>160.17775469746</v>
+        <v>159.4284638450285</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.0527526605176</v>
+        <v>152.3034618080861</v>
       </c>
     </row>
     <row r="26">
@@ -2608,10 +2608,10 @@
         <v>67.61083201524991</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>162.3410403666946</v>
       </c>
       <c r="U26" t="n">
-        <v>209.4182421859762</v>
+        <v>209.4182421859757</v>
       </c>
       <c r="V26" t="n">
         <v>286.175328697209</v>
@@ -2733,7 +2733,7 @@
         <v>103.1780851413949</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691217</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>244.6349084326869</v>
       </c>
       <c r="V28" t="n">
-        <v>210.5607135509021</v>
+        <v>136.6386344216453</v>
       </c>
       <c r="W28" t="n">
-        <v>116.2484987974964</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X28" t="n">
         <v>184.1327256161112</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.61083201524988</v>
+        <v>67.61083201525014</v>
       </c>
       <c r="T29" t="n">
         <v>162.3410403666942</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C31" t="n">
-        <v>125.6698913257019</v>
+        <v>101.8293544331768</v>
       </c>
       <c r="D31" t="n">
         <v>107.0385432452864</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8570328736432</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>103.8441182500053</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>47.35522289712138</v>
       </c>
       <c r="S31" t="n">
         <v>148.1920955585159</v>
@@ -3009,7 +3009,7 @@
         <v>244.6349084326869</v>
       </c>
       <c r="V31" t="n">
-        <v>129.2183666818551</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W31" t="n">
         <v>244.9460685636651</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.70479213564799</v>
+        <v>65.70479213564752</v>
       </c>
       <c r="T32" t="n">
-        <v>160.4350004870918</v>
+        <v>160.4350004870921</v>
       </c>
       <c r="U32" t="n">
         <v>207.512202306374</v>
@@ -3204,10 +3204,10 @@
         <v>122.5428386064999</v>
       </c>
       <c r="H34" t="n">
-        <v>70.88544181455859</v>
+        <v>101.2720452617925</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>52.86945075730979</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.44918301751902</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>146.2860556789136</v>
       </c>
       <c r="T34" t="n">
-        <v>176.0659796236409</v>
+        <v>138.2591084366162</v>
       </c>
       <c r="U34" t="n">
         <v>242.7288685530845</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>312.7385393449467</v>
+        <v>313.4878301973782</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2775894524737</v>
+        <v>296.0268803049052</v>
       </c>
       <c r="D35" t="n">
-        <v>284.6877393021491</v>
+        <v>285.4370301545806</v>
       </c>
       <c r="E35" t="n">
-        <v>311.9350677537279</v>
+        <v>312.6843586061594</v>
       </c>
       <c r="F35" t="n">
-        <v>336.8807434231776</v>
+        <v>337.6300342756091</v>
       </c>
       <c r="G35" t="n">
-        <v>340.9264233349196</v>
+        <v>341.6757141873511</v>
       </c>
       <c r="H35" t="n">
-        <v>224.6124620687866</v>
+        <v>225.3617529212181</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.192459469642</v>
+        <v>39.94175032207349</v>
       </c>
       <c r="T35" t="n">
-        <v>133.9226678210863</v>
+        <v>134.671958673518</v>
       </c>
       <c r="U35" t="n">
-        <v>180.9998696403687</v>
+        <v>181.7491604927996</v>
       </c>
       <c r="V35" t="n">
-        <v>257.7569561516011</v>
+        <v>258.5062470040326</v>
       </c>
       <c r="W35" t="n">
-        <v>279.2456663988792</v>
+        <v>279.9949572513107</v>
       </c>
       <c r="X35" t="n">
-        <v>299.7357983599352</v>
+        <v>300.4850892123667</v>
       </c>
       <c r="Y35" t="n">
-        <v>316.2426363375197</v>
+        <v>316.9919271899512</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.8366778634035</v>
+        <v>110.585968715835</v>
       </c>
       <c r="C37" t="n">
-        <v>97.251518780094</v>
+        <v>98.00080963252549</v>
       </c>
       <c r="D37" t="n">
-        <v>78.62017069967852</v>
+        <v>79.36946155211001</v>
       </c>
       <c r="E37" t="n">
-        <v>76.43866032803534</v>
+        <v>77.18795118046683</v>
       </c>
       <c r="F37" t="n">
-        <v>75.42574570439741</v>
+        <v>76.1750365568289</v>
       </c>
       <c r="G37" t="n">
-        <v>96.03050594049439</v>
+        <v>96.77979679292588</v>
       </c>
       <c r="H37" t="n">
-        <v>74.75971259578695</v>
+        <v>75.50900344821844</v>
       </c>
       <c r="I37" t="n">
-        <v>26.35711809130424</v>
+        <v>27.10640894373575</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.9368503515135</v>
+        <v>19.68614120394498</v>
       </c>
       <c r="S37" t="n">
-        <v>119.7737230129081</v>
+        <v>120.5230138653395</v>
       </c>
       <c r="T37" t="n">
-        <v>149.5536469576354</v>
+        <v>150.3029378100669</v>
       </c>
       <c r="U37" t="n">
-        <v>216.216535887079</v>
+        <v>216.9658267395105</v>
       </c>
       <c r="V37" t="n">
-        <v>182.1423410052942</v>
+        <v>182.8916318577257</v>
       </c>
       <c r="W37" t="n">
-        <v>216.5276960180572</v>
+        <v>217.2769868704887</v>
       </c>
       <c r="X37" t="n">
-        <v>155.7143530705033</v>
+        <v>156.4636439229348</v>
       </c>
       <c r="Y37" t="n">
-        <v>148.5893510335609</v>
+        <v>149.3386418859924</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>312.7385393449467</v>
+        <v>313.4878301973782</v>
       </c>
       <c r="C38" t="n">
-        <v>295.2775894524737</v>
+        <v>296.0268803049052</v>
       </c>
       <c r="D38" t="n">
-        <v>284.6877393021491</v>
+        <v>285.4370301545806</v>
       </c>
       <c r="E38" t="n">
-        <v>311.9350677537279</v>
+        <v>312.6843586061594</v>
       </c>
       <c r="F38" t="n">
-        <v>336.8807434231776</v>
+        <v>337.6300342756091</v>
       </c>
       <c r="G38" t="n">
-        <v>340.9264233349196</v>
+        <v>341.6757141873511</v>
       </c>
       <c r="H38" t="n">
-        <v>224.6124620687866</v>
+        <v>225.3617529212181</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.192459469642</v>
+        <v>39.94175032207349</v>
       </c>
       <c r="T38" t="n">
-        <v>133.9226678210863</v>
+        <v>134.6719586735178</v>
       </c>
       <c r="U38" t="n">
-        <v>180.9998696403687</v>
+        <v>181.7491604927996</v>
       </c>
       <c r="V38" t="n">
-        <v>257.7569561516011</v>
+        <v>258.5062470040326</v>
       </c>
       <c r="W38" t="n">
-        <v>279.2456663988792</v>
+        <v>279.9949572513107</v>
       </c>
       <c r="X38" t="n">
-        <v>299.7357983599352</v>
+        <v>300.4850892123667</v>
       </c>
       <c r="Y38" t="n">
-        <v>316.2426363375197</v>
+        <v>316.9919271899512</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>109.8366778634035</v>
+        <v>110.585968715835</v>
       </c>
       <c r="C40" t="n">
-        <v>97.251518780094</v>
+        <v>98.00080963252549</v>
       </c>
       <c r="D40" t="n">
-        <v>78.62017069967852</v>
+        <v>79.36946155211001</v>
       </c>
       <c r="E40" t="n">
-        <v>76.43866032803534</v>
+        <v>77.18795118046683</v>
       </c>
       <c r="F40" t="n">
-        <v>75.42574570439741</v>
+        <v>76.1750365568289</v>
       </c>
       <c r="G40" t="n">
-        <v>96.03050594049439</v>
+        <v>96.77979679292588</v>
       </c>
       <c r="H40" t="n">
-        <v>74.75971259578695</v>
+        <v>75.50900344821844</v>
       </c>
       <c r="I40" t="n">
-        <v>26.35711809130427</v>
+        <v>27.10640894373575</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.9368503515135</v>
+        <v>19.68614120394498</v>
       </c>
       <c r="S40" t="n">
-        <v>119.7737230129081</v>
+        <v>120.5230138653395</v>
       </c>
       <c r="T40" t="n">
-        <v>149.553646957636</v>
+        <v>150.3029378100669</v>
       </c>
       <c r="U40" t="n">
-        <v>216.216535887079</v>
+        <v>216.9658267395105</v>
       </c>
       <c r="V40" t="n">
-        <v>182.1423410052942</v>
+        <v>182.8916318577257</v>
       </c>
       <c r="W40" t="n">
-        <v>216.5276960180572</v>
+        <v>217.2769868704887</v>
       </c>
       <c r="X40" t="n">
-        <v>155.7143530705033</v>
+        <v>156.4636439229348</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.5893510335609</v>
+        <v>149.3386418859924</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
@@ -3757,7 +3757,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>267.5645252245945</v>
+        <v>179.4384479484341</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3948,7 +3948,7 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -3982,13 +3982,13 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
         <v>363.9465890348609</v>
@@ -4033,13 +4033,13 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>77.12881875749873</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>259.9404756908564</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>322.7559640598765</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633451</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800357</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
         <v>14.44108515774386</v>
@@ -4825,31 +4825,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="C9" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="D9" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="E9" t="n">
-        <v>21.38658590694733</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="F9" t="n">
-        <v>14.44108515774386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
         <v>7.082327113962777</v>
       </c>
       <c r="M9" t="n">
-        <v>7.082327113962777</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N9" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
@@ -4910,25 +4910,25 @@
         <v>27.50418296684575</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>6.667680719235332</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C10" t="n">
-        <v>10.86425143297768</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D10" t="n">
+        <v>14.44108515774386</v>
+      </c>
+      <c r="E10" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.357368943631237</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
         <v>20.69689768255142</v>
@@ -4992,22 +4992,22 @@
         <v>24.75525293138463</v>
       </c>
       <c r="T10" t="n">
-        <v>17.80975218218115</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="U10" t="n">
-        <v>10.86425143297768</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="V10" t="n">
-        <v>10.86425143297768</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="W10" t="n">
-        <v>10.86425143297768</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X10" t="n">
-        <v>10.86425143297768</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.86425143297768</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1769.377929665762</v>
+        <v>1686.839612750158</v>
       </c>
       <c r="C11" t="n">
-        <v>1447.865045673424</v>
+        <v>1365.326728757819</v>
       </c>
       <c r="D11" t="n">
-        <v>1137.048980014747</v>
+        <v>1054.510663099142</v>
       </c>
       <c r="E11" t="n">
-        <v>798.7103603645758</v>
+        <v>716.1720434489711</v>
       </c>
       <c r="F11" t="n">
-        <v>435.1740885230415</v>
+        <v>685.1245489674372</v>
       </c>
       <c r="G11" t="n">
-        <v>67.55127131611124</v>
+        <v>317.5017317605071</v>
       </c>
       <c r="H11" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="I11" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="J11" t="n">
-        <v>256.4304022751367</v>
+        <v>256.246895276373</v>
       </c>
       <c r="K11" t="n">
-        <v>590.2497759649832</v>
+        <v>590.0662689662195</v>
       </c>
       <c r="L11" t="n">
-        <v>1041.283989213392</v>
+        <v>1041.100482214628</v>
       </c>
       <c r="M11" t="n">
-        <v>1574.815893885317</v>
+        <v>1574.632386886553</v>
       </c>
       <c r="N11" t="n">
-        <v>2121.594710944099</v>
+        <v>2121.411203945335</v>
       </c>
       <c r="O11" t="n">
-        <v>2624.567181823436</v>
+        <v>2624.383674824672</v>
       </c>
       <c r="P11" t="n">
-        <v>3019.341548180614</v>
+        <v>3061.084787554893</v>
       </c>
       <c r="Q11" t="n">
-        <v>3267.627909936296</v>
+        <v>3309.371149310575</v>
       </c>
       <c r="R11" t="n">
-        <v>3377.563565805562</v>
+        <v>3368.388215867377</v>
       </c>
       <c r="S11" t="n">
-        <v>3366.166237840093</v>
+        <v>3305.547180342546</v>
       </c>
       <c r="T11" t="n">
-        <v>3366.166237840093</v>
+        <v>3147.019065674841</v>
       </c>
       <c r="U11" t="n">
-        <v>3366.166237840093</v>
+        <v>2940.938221896751</v>
       </c>
       <c r="V11" t="n">
-        <v>3082.552983444596</v>
+        <v>2657.324967501253</v>
       </c>
       <c r="W11" t="n">
-        <v>2777.233961122555</v>
+        <v>2352.005945179213</v>
       </c>
       <c r="X11" t="n">
-        <v>2451.217835809549</v>
+        <v>2025.989819866206</v>
       </c>
       <c r="Y11" t="n">
-        <v>2108.528136781811</v>
+        <v>2025.989819866206</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>942.5830093650364</v>
+        <v>942.3995023662724</v>
       </c>
       <c r="C12" t="n">
-        <v>768.1299800839095</v>
+        <v>767.9464730851454</v>
       </c>
       <c r="D12" t="n">
-        <v>619.1955704226582</v>
+        <v>619.0120634238942</v>
       </c>
       <c r="E12" t="n">
-        <v>459.9581154172027</v>
+        <v>459.7746084184387</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4235574440877</v>
+        <v>313.2400504453237</v>
       </c>
       <c r="G12" t="n">
-        <v>177.0604572767058</v>
+        <v>176.8769502779426</v>
       </c>
       <c r="H12" t="n">
-        <v>86.55856291457329</v>
+        <v>86.37505591580998</v>
       </c>
       <c r="I12" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="J12" t="n">
-        <v>161.2285408067286</v>
+        <v>161.0450338079652</v>
       </c>
       <c r="K12" t="n">
-        <v>399.4927397870757</v>
+        <v>399.3092327883121</v>
       </c>
       <c r="L12" t="n">
-        <v>766.1909000997412</v>
+        <v>766.0073931009772</v>
       </c>
       <c r="M12" t="n">
-        <v>1213.467225322057</v>
+        <v>1213.283718323293</v>
       </c>
       <c r="N12" t="n">
-        <v>1686.990268876511</v>
+        <v>1686.806761877748</v>
       </c>
       <c r="O12" t="n">
-        <v>2097.951548294566</v>
+        <v>2097.768041295803</v>
       </c>
       <c r="P12" t="n">
-        <v>2408.451139770669</v>
+        <v>2408.267632771905</v>
       </c>
       <c r="Q12" t="n">
-        <v>2566.092697417269</v>
+        <v>2565.909190418505</v>
       </c>
       <c r="R12" t="n">
-        <v>2565.948344009784</v>
+        <v>2565.764837011021</v>
       </c>
       <c r="S12" t="n">
-        <v>2436.510457503264</v>
+        <v>2436.3269505045</v>
       </c>
       <c r="T12" t="n">
-        <v>2243.86745718112</v>
+        <v>2243.683950182356</v>
       </c>
       <c r="U12" t="n">
-        <v>2015.799610315535</v>
+        <v>2015.616103316772</v>
       </c>
       <c r="V12" t="n">
-        <v>1780.647502083793</v>
+        <v>1780.463995085029</v>
       </c>
       <c r="W12" t="n">
-        <v>1526.410145355591</v>
+        <v>1526.226638356827</v>
       </c>
       <c r="X12" t="n">
-        <v>1318.558645150058</v>
+        <v>1318.375138151294</v>
       </c>
       <c r="Y12" t="n">
-        <v>1110.798346385104</v>
+        <v>1110.61483938634</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.5054046892222</v>
+        <v>760.3218976904584</v>
       </c>
       <c r="C13" t="n">
-        <v>639.0188547093886</v>
+        <v>638.8353477106248</v>
       </c>
       <c r="D13" t="n">
-        <v>536.3518482451261</v>
+        <v>536.1683412463623</v>
       </c>
       <c r="E13" t="n">
-        <v>435.8883876108063</v>
+        <v>435.7048806120424</v>
       </c>
       <c r="F13" t="n">
-        <v>336.4480730609693</v>
+        <v>336.2645660622052</v>
       </c>
       <c r="G13" t="n">
-        <v>216.1948693837615</v>
+        <v>216.0113623849974</v>
       </c>
       <c r="H13" t="n">
-        <v>117.4273155496926</v>
+        <v>117.2438085509284</v>
       </c>
       <c r="I13" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="J13" t="n">
-        <v>159.1792890154534</v>
+        <v>158.9957820166897</v>
       </c>
       <c r="K13" t="n">
-        <v>409.6718572167364</v>
+        <v>409.4883502179727</v>
       </c>
       <c r="L13" t="n">
-        <v>772.7370409176392</v>
+        <v>772.5535339188755</v>
       </c>
       <c r="M13" t="n">
-        <v>1163.399471769595</v>
+        <v>1163.215964770831</v>
       </c>
       <c r="N13" t="n">
-        <v>1551.313233727866</v>
+        <v>1551.129726729102</v>
       </c>
       <c r="O13" t="n">
-        <v>1897.148217900686</v>
+        <v>1896.964710901922</v>
       </c>
       <c r="P13" t="n">
-        <v>2176.261103586752</v>
+        <v>2176.077596587988</v>
       </c>
       <c r="Q13" t="n">
-        <v>2300.376784991674</v>
+        <v>2300.19327799291</v>
       </c>
       <c r="R13" t="n">
-        <v>2257.995960697275</v>
+        <v>2257.812453698511</v>
       </c>
       <c r="S13" t="n">
-        <v>2113.759709472175</v>
+        <v>2113.576202473411</v>
       </c>
       <c r="T13" t="n">
-        <v>1939.442726989774</v>
+        <v>1939.25921999101</v>
       </c>
       <c r="U13" t="n">
-        <v>1697.78949306349</v>
+        <v>1697.605986064727</v>
       </c>
       <c r="V13" t="n">
-        <v>1490.554637805677</v>
+        <v>1490.371130806913</v>
       </c>
       <c r="W13" t="n">
-        <v>1248.587100716789</v>
+        <v>1248.403593718026</v>
       </c>
       <c r="X13" t="n">
-        <v>1068.047182766845</v>
+        <v>1067.863675768082</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.7042365713884</v>
+        <v>894.5207295726248</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1681.173277458751</v>
+        <v>1697.81550611782</v>
       </c>
       <c r="C14" t="n">
-        <v>1359.660393466412</v>
+        <v>1697.81550611782</v>
       </c>
       <c r="D14" t="n">
-        <v>1048.844327807735</v>
+        <v>1386.999440459143</v>
       </c>
       <c r="E14" t="n">
-        <v>1048.844327807735</v>
+        <v>1048.660820808971</v>
       </c>
       <c r="F14" t="n">
-        <v>685.308055966201</v>
+        <v>685.1245489674372</v>
       </c>
       <c r="G14" t="n">
-        <v>317.6852387592708</v>
+        <v>317.5017317605071</v>
       </c>
       <c r="H14" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="I14" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="J14" t="n">
-        <v>307.3489915875999</v>
+        <v>298.1736416494153</v>
       </c>
       <c r="K14" t="n">
-        <v>641.1683652774464</v>
+        <v>631.9930153392619</v>
       </c>
       <c r="L14" t="n">
-        <v>1092.202578525855</v>
+        <v>1083.027228587671</v>
       </c>
       <c r="M14" t="n">
-        <v>1625.73448319778</v>
+        <v>1616.559133259595</v>
       </c>
       <c r="N14" t="n">
-        <v>2172.513300256562</v>
+        <v>2163.337950318378</v>
       </c>
       <c r="O14" t="n">
-        <v>2675.485771135899</v>
+        <v>2666.310421197715</v>
       </c>
       <c r="P14" t="n">
-        <v>3070.260137493077</v>
+        <v>3061.084787554893</v>
       </c>
       <c r="Q14" t="n">
-        <v>3318.54649924876</v>
+        <v>3309.371149310575</v>
       </c>
       <c r="R14" t="n">
-        <v>3377.563565805562</v>
+        <v>3368.388215867378</v>
       </c>
       <c r="S14" t="n">
-        <v>3314.722530280731</v>
+        <v>3305.547180342546</v>
       </c>
       <c r="T14" t="n">
-        <v>3158.026304098166</v>
+        <v>3147.019065674841</v>
       </c>
       <c r="U14" t="n">
-        <v>2951.945460320076</v>
+        <v>2940.938221896751</v>
       </c>
       <c r="V14" t="n">
-        <v>2668.332205924578</v>
+        <v>2657.324967501254</v>
       </c>
       <c r="W14" t="n">
-        <v>2363.013183602538</v>
+        <v>2379.655412261607</v>
       </c>
       <c r="X14" t="n">
-        <v>2363.013183602538</v>
+        <v>2379.655412261607</v>
       </c>
       <c r="Y14" t="n">
-        <v>2020.323484574799</v>
+        <v>2036.965713233868</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.5830093650364</v>
+        <v>942.3995023662727</v>
       </c>
       <c r="C15" t="n">
-        <v>768.1299800839095</v>
+        <v>767.9464730851457</v>
       </c>
       <c r="D15" t="n">
-        <v>619.1955704226582</v>
+        <v>619.0120634238945</v>
       </c>
       <c r="E15" t="n">
-        <v>459.9581154172027</v>
+        <v>459.774608418439</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4235574440877</v>
+        <v>313.240050445324</v>
       </c>
       <c r="G15" t="n">
-        <v>177.0604572767058</v>
+        <v>176.8769502779421</v>
       </c>
       <c r="H15" t="n">
-        <v>86.55856291457329</v>
+        <v>86.37505591580958</v>
       </c>
       <c r="I15" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="J15" t="n">
-        <v>161.2285408067286</v>
+        <v>161.045033807965</v>
       </c>
       <c r="K15" t="n">
-        <v>399.4927397870757</v>
+        <v>399.3092327883122</v>
       </c>
       <c r="L15" t="n">
-        <v>766.1909000997412</v>
+        <v>766.0073931009777</v>
       </c>
       <c r="M15" t="n">
-        <v>1213.467225322057</v>
+        <v>1213.283718323294</v>
       </c>
       <c r="N15" t="n">
-        <v>1686.990268876511</v>
+        <v>1686.806761877748</v>
       </c>
       <c r="O15" t="n">
-        <v>2097.951548294566</v>
+        <v>2097.768041295803</v>
       </c>
       <c r="P15" t="n">
-        <v>2408.451139770669</v>
+        <v>2408.267632771906</v>
       </c>
       <c r="Q15" t="n">
-        <v>2566.092697417269</v>
+        <v>2565.909190418506</v>
       </c>
       <c r="R15" t="n">
-        <v>2565.948344009784</v>
+        <v>2565.764837011021</v>
       </c>
       <c r="S15" t="n">
-        <v>2436.510457503264</v>
+        <v>2436.3269505045</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.86745718112</v>
+        <v>2243.683950182356</v>
       </c>
       <c r="U15" t="n">
-        <v>2015.799610315535</v>
+        <v>2015.616103316772</v>
       </c>
       <c r="V15" t="n">
-        <v>1780.647502083793</v>
+        <v>1780.463995085029</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.410145355591</v>
+        <v>1526.226638356827</v>
       </c>
       <c r="X15" t="n">
-        <v>1318.558645150058</v>
+        <v>1318.375138151295</v>
       </c>
       <c r="Y15" t="n">
-        <v>1110.798346385104</v>
+        <v>1110.614839386341</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.505404689222</v>
+        <v>760.3218976904587</v>
       </c>
       <c r="C16" t="n">
-        <v>639.0188547093884</v>
+        <v>638.8353477106251</v>
       </c>
       <c r="D16" t="n">
-        <v>536.3518482451259</v>
+        <v>536.1683412463626</v>
       </c>
       <c r="E16" t="n">
-        <v>435.888387610806</v>
+        <v>435.7048806120428</v>
       </c>
       <c r="F16" t="n">
-        <v>336.4480730609689</v>
+        <v>336.2645660622056</v>
       </c>
       <c r="G16" t="n">
-        <v>216.1948693837611</v>
+        <v>216.0113623849979</v>
       </c>
       <c r="H16" t="n">
-        <v>117.4273155496921</v>
+        <v>117.2438085509289</v>
       </c>
       <c r="I16" t="n">
-        <v>67.55127131611124</v>
+        <v>67.36776431734755</v>
       </c>
       <c r="J16" t="n">
-        <v>159.1792890154535</v>
+        <v>158.9957820166901</v>
       </c>
       <c r="K16" t="n">
-        <v>409.6718572167365</v>
+        <v>409.4883502179731</v>
       </c>
       <c r="L16" t="n">
-        <v>772.7370409176392</v>
+        <v>772.5535339188759</v>
       </c>
       <c r="M16" t="n">
-        <v>1163.399471769595</v>
+        <v>1163.215964770832</v>
       </c>
       <c r="N16" t="n">
-        <v>1551.313233727866</v>
+        <v>1551.129726729103</v>
       </c>
       <c r="O16" t="n">
-        <v>1897.148217900686</v>
+        <v>1896.964710901923</v>
       </c>
       <c r="P16" t="n">
-        <v>2176.261103586752</v>
+        <v>2176.077596587989</v>
       </c>
       <c r="Q16" t="n">
-        <v>2300.376784991673</v>
+        <v>2300.19327799291</v>
       </c>
       <c r="R16" t="n">
-        <v>2257.995960697275</v>
+        <v>2257.812453698511</v>
       </c>
       <c r="S16" t="n">
-        <v>2113.759709472175</v>
+        <v>2113.576202473411</v>
       </c>
       <c r="T16" t="n">
-        <v>1939.442726989774</v>
+        <v>1939.25921999101</v>
       </c>
       <c r="U16" t="n">
-        <v>1697.78949306349</v>
+        <v>1697.605986064727</v>
       </c>
       <c r="V16" t="n">
-        <v>1490.554637805677</v>
+        <v>1490.371130806913</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.587100716789</v>
+        <v>1248.403593718026</v>
       </c>
       <c r="X16" t="n">
-        <v>1068.047182766845</v>
+        <v>1067.863675768082</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.7042365713885</v>
+        <v>894.5207295726252</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1902.837612729038</v>
+        <v>1910.529416178921</v>
       </c>
       <c r="C17" t="n">
-        <v>1600.068934871028</v>
+        <v>1608.517597767811</v>
       </c>
       <c r="D17" t="n">
-        <v>1307.997075346678</v>
+        <v>1317.202597690362</v>
       </c>
       <c r="E17" t="n">
-        <v>988.4026618308354</v>
+        <v>998.3650436214198</v>
       </c>
       <c r="F17" t="n">
-        <v>643.6105961236292</v>
+        <v>654.329837361114</v>
       </c>
       <c r="G17" t="n">
-        <v>306.9322066248191</v>
+        <v>306.2080857354122</v>
       </c>
       <c r="H17" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="I17" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J17" t="n">
-        <v>264.421576275013</v>
+        <v>389.963898366322</v>
       </c>
       <c r="K17" t="n">
-        <v>598.2409499648596</v>
+        <v>723.7832720561686</v>
       </c>
       <c r="L17" t="n">
-        <v>1049.275163213269</v>
+        <v>1174.817485304578</v>
       </c>
       <c r="M17" t="n">
-        <v>1984.112923998613</v>
+        <v>1708.349389976502</v>
       </c>
       <c r="N17" t="n">
-        <v>2572.072000250373</v>
+        <v>2255.128207035285</v>
       </c>
       <c r="O17" t="n">
-        <v>3075.04447112971</v>
+        <v>2758.100677914622</v>
       </c>
       <c r="P17" t="n">
-        <v>3469.818837486888</v>
+        <v>3471.455765361568</v>
       </c>
       <c r="Q17" t="n">
-        <v>3718.105199242571</v>
+        <v>3719.74212711725</v>
       </c>
       <c r="R17" t="n">
-        <v>3777.122265799373</v>
+        <v>3778.759193674053</v>
       </c>
       <c r="S17" t="n">
-        <v>3733.02543640887</v>
+        <v>3735.419223730449</v>
       </c>
       <c r="T17" t="n">
-        <v>3593.241527875493</v>
+        <v>3596.392174643973</v>
       </c>
       <c r="U17" t="n">
-        <v>3405.90489023173</v>
+        <v>3409.812396447111</v>
       </c>
       <c r="V17" t="n">
-        <v>3141.035841970561</v>
+        <v>3145.700207632842</v>
       </c>
       <c r="W17" t="n">
-        <v>2854.461025782848</v>
+        <v>2859.88225089203</v>
       </c>
       <c r="X17" t="n">
-        <v>2547.189106604169</v>
+        <v>2553.367191160251</v>
       </c>
       <c r="Y17" t="n">
-        <v>2223.243613710759</v>
+        <v>2230.178557713741</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950.5741833649128</v>
+        <v>950.6069219224063</v>
       </c>
       <c r="C18" t="n">
-        <v>776.1211540837858</v>
+        <v>776.1538926412793</v>
       </c>
       <c r="D18" t="n">
-        <v>627.1867444225345</v>
+        <v>627.219482980028</v>
       </c>
       <c r="E18" t="n">
-        <v>467.9492894170789</v>
+        <v>467.9820279745725</v>
       </c>
       <c r="F18" t="n">
-        <v>321.4147314439639</v>
+        <v>321.4474700014574</v>
       </c>
       <c r="G18" t="n">
-        <v>185.051631276582</v>
+        <v>185.0843698340755</v>
       </c>
       <c r="H18" t="n">
-        <v>94.54973691444948</v>
+        <v>94.58247547194307</v>
       </c>
       <c r="I18" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J18" t="n">
-        <v>169.2197148066049</v>
+        <v>169.2524533640984</v>
       </c>
       <c r="K18" t="n">
-        <v>407.4839137869521</v>
+        <v>407.5166523444457</v>
       </c>
       <c r="L18" t="n">
-        <v>774.1820740996177</v>
+        <v>774.2148126571112</v>
       </c>
       <c r="M18" t="n">
-        <v>1221.458399321934</v>
+        <v>1221.491137879427</v>
       </c>
       <c r="N18" t="n">
-        <v>1694.981442876388</v>
+        <v>1695.014181433882</v>
       </c>
       <c r="O18" t="n">
-        <v>2105.942722294442</v>
+        <v>2105.975460851937</v>
       </c>
       <c r="P18" t="n">
-        <v>2416.442313770545</v>
+        <v>2416.47505232804</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.083871417145</v>
+        <v>2574.11660997464</v>
       </c>
       <c r="R18" t="n">
-        <v>2573.93951800966</v>
+        <v>2573.972256567154</v>
       </c>
       <c r="S18" t="n">
-        <v>2444.50163150314</v>
+        <v>2444.534370060634</v>
       </c>
       <c r="T18" t="n">
-        <v>2251.858631180996</v>
+        <v>2251.89136973849</v>
       </c>
       <c r="U18" t="n">
-        <v>2023.790784315412</v>
+        <v>2023.823522872905</v>
       </c>
       <c r="V18" t="n">
-        <v>1788.638676083669</v>
+        <v>1788.671414641163</v>
       </c>
       <c r="W18" t="n">
-        <v>1534.401319355467</v>
+        <v>1534.434057912961</v>
       </c>
       <c r="X18" t="n">
-        <v>1326.549819149935</v>
+        <v>1326.582557707428</v>
       </c>
       <c r="Y18" t="n">
-        <v>1118.789520384981</v>
+        <v>1118.822258942474</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>637.2871357488031</v>
+        <v>632.0218581779933</v>
       </c>
       <c r="C19" t="n">
-        <v>534.5447919032973</v>
+        <v>530.0363737793881</v>
       </c>
       <c r="D19" t="n">
-        <v>450.6219915733628</v>
+        <v>446.870432896354</v>
       </c>
       <c r="E19" t="n">
-        <v>368.9027370733709</v>
+        <v>365.9080378432626</v>
       </c>
       <c r="F19" t="n">
-        <v>288.2066286578618</v>
+        <v>285.9687888746539</v>
       </c>
       <c r="G19" t="n">
-        <v>186.6976311149819</v>
+        <v>185.2166507786745</v>
       </c>
       <c r="H19" t="n">
-        <v>106.6742834152409</v>
+        <v>105.950162525834</v>
       </c>
       <c r="I19" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J19" t="n">
-        <v>120.6650777629231</v>
+        <v>120.6978163204166</v>
       </c>
       <c r="K19" t="n">
-        <v>331.9114628971436</v>
+        <v>324.6849992692931</v>
       </c>
       <c r="L19" t="n">
-        <v>713.3478430303012</v>
+        <v>641.2447977177893</v>
       </c>
       <c r="M19" t="n">
-        <v>1057.50488862985</v>
+        <v>985.4018433173384</v>
       </c>
       <c r="N19" t="n">
-        <v>1398.913265335715</v>
+        <v>1326.810220023203</v>
       </c>
       <c r="O19" t="n">
-        <v>1698.242864256129</v>
+        <v>1626.139818943617</v>
       </c>
       <c r="P19" t="n">
-        <v>1930.850364689788</v>
+        <v>1858.747319377276</v>
       </c>
       <c r="Q19" t="n">
-        <v>2008.460660842303</v>
+        <v>1996.383648249389</v>
       </c>
       <c r="R19" t="n">
-        <v>1984.824042682232</v>
+        <v>1973.503889536219</v>
       </c>
       <c r="S19" t="n">
-        <v>1859.331997591459</v>
+        <v>1848.768703892347</v>
       </c>
       <c r="T19" t="n">
-        <v>1703.759221243387</v>
+        <v>1693.952786991174</v>
       </c>
       <c r="U19" t="n">
-        <v>1480.850193451432</v>
+        <v>1471.80061864612</v>
       </c>
       <c r="V19" t="n">
-        <v>1292.359544327946</v>
+        <v>1284.066828969534</v>
       </c>
       <c r="W19" t="n">
-        <v>1069.136213373386</v>
+        <v>1061.600357461875</v>
       </c>
       <c r="X19" t="n">
-        <v>907.3405015577704</v>
+        <v>900.5615050931598</v>
       </c>
       <c r="Y19" t="n">
-        <v>752.7417614966415</v>
+        <v>746.7196244789313</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1915.037834302831</v>
+        <v>1910.529416178921</v>
       </c>
       <c r="C20" t="n">
-        <v>1612.26915644482</v>
+        <v>1608.517597767811</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.197296920471</v>
+        <v>1317.202597690362</v>
       </c>
       <c r="E20" t="n">
-        <v>1000.602883404628</v>
+        <v>998.3650436214198</v>
       </c>
       <c r="F20" t="n">
-        <v>655.8108176974213</v>
+        <v>654.329837361114</v>
       </c>
       <c r="G20" t="n">
-        <v>306.9322066248191</v>
+        <v>306.2080857354122</v>
       </c>
       <c r="H20" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="I20" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J20" t="n">
-        <v>264.421576275013</v>
+        <v>322.5814053363841</v>
       </c>
       <c r="K20" t="n">
-        <v>598.2409499648596</v>
+        <v>977.3047374716838</v>
       </c>
       <c r="L20" t="n">
-        <v>1049.275163213269</v>
+        <v>1428.338950720093</v>
       </c>
       <c r="M20" t="n">
-        <v>1582.807067885193</v>
+        <v>1961.870855392017</v>
       </c>
       <c r="N20" t="n">
-        <v>2129.585884943976</v>
+        <v>2508.6496724508</v>
       </c>
       <c r="O20" t="n">
-        <v>3009.550535273431</v>
+        <v>3011.622143330137</v>
       </c>
       <c r="P20" t="n">
-        <v>3404.759581812636</v>
+        <v>3406.396509687315</v>
       </c>
       <c r="Q20" t="n">
-        <v>3653.045943568318</v>
+        <v>3654.682871442998</v>
       </c>
       <c r="R20" t="n">
-        <v>3777.122265799373</v>
+        <v>3778.759193674053</v>
       </c>
       <c r="S20" t="n">
-        <v>3733.02543640887</v>
+        <v>3735.419223730449</v>
       </c>
       <c r="T20" t="n">
-        <v>3593.241527875493</v>
+        <v>3596.392174643973</v>
       </c>
       <c r="U20" t="n">
-        <v>3418.105111805522</v>
+        <v>3409.812396447111</v>
       </c>
       <c r="V20" t="n">
-        <v>3153.236063544353</v>
+        <v>3145.700207632842</v>
       </c>
       <c r="W20" t="n">
-        <v>2866.66124735664</v>
+        <v>2859.88225089203</v>
       </c>
       <c r="X20" t="n">
-        <v>2559.389328177961</v>
+        <v>2553.367191160251</v>
       </c>
       <c r="Y20" t="n">
-        <v>2235.443835284551</v>
+        <v>2230.178557713741</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.5741833649128</v>
+        <v>950.6069219224063</v>
       </c>
       <c r="C21" t="n">
-        <v>776.1211540837858</v>
+        <v>776.1538926412793</v>
       </c>
       <c r="D21" t="n">
-        <v>627.1867444225345</v>
+        <v>627.219482980028</v>
       </c>
       <c r="E21" t="n">
-        <v>467.9492894170789</v>
+        <v>467.9820279745725</v>
       </c>
       <c r="F21" t="n">
-        <v>321.4147314439639</v>
+        <v>321.4474700014574</v>
       </c>
       <c r="G21" t="n">
-        <v>185.051631276582</v>
+        <v>185.0843698340755</v>
       </c>
       <c r="H21" t="n">
-        <v>94.54973691444948</v>
+        <v>94.58247547194307</v>
       </c>
       <c r="I21" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J21" t="n">
-        <v>169.2197148066049</v>
+        <v>169.2524533640984</v>
       </c>
       <c r="K21" t="n">
-        <v>407.4839137869521</v>
+        <v>407.5166523444457</v>
       </c>
       <c r="L21" t="n">
-        <v>774.1820740996177</v>
+        <v>774.2148126571112</v>
       </c>
       <c r="M21" t="n">
-        <v>1221.458399321934</v>
+        <v>1221.491137879427</v>
       </c>
       <c r="N21" t="n">
-        <v>1694.981442876388</v>
+        <v>1695.014181433882</v>
       </c>
       <c r="O21" t="n">
-        <v>2105.942722294443</v>
+        <v>2105.975460851937</v>
       </c>
       <c r="P21" t="n">
-        <v>2416.442313770546</v>
+        <v>2416.47505232804</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.083871417146</v>
+        <v>2574.116609974639</v>
       </c>
       <c r="R21" t="n">
-        <v>2573.93951800966</v>
+        <v>2573.972256567154</v>
       </c>
       <c r="S21" t="n">
-        <v>2444.50163150314</v>
+        <v>2444.534370060634</v>
       </c>
       <c r="T21" t="n">
-        <v>2251.858631180996</v>
+        <v>2251.89136973849</v>
       </c>
       <c r="U21" t="n">
-        <v>2023.790784315412</v>
+        <v>2023.823522872905</v>
       </c>
       <c r="V21" t="n">
-        <v>1788.638676083669</v>
+        <v>1788.671414641163</v>
       </c>
       <c r="W21" t="n">
-        <v>1534.401319355467</v>
+        <v>1534.434057912961</v>
       </c>
       <c r="X21" t="n">
-        <v>1326.549819149935</v>
+        <v>1326.582557707428</v>
       </c>
       <c r="Y21" t="n">
-        <v>1118.789520384981</v>
+        <v>1118.822258942474</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>637.2871357488031</v>
+        <v>632.0218581779933</v>
       </c>
       <c r="C22" t="n">
-        <v>534.5447919032973</v>
+        <v>530.0363737793881</v>
       </c>
       <c r="D22" t="n">
-        <v>450.6219915733628</v>
+        <v>446.870432896354</v>
       </c>
       <c r="E22" t="n">
-        <v>368.9027370733709</v>
+        <v>365.9080378432626</v>
       </c>
       <c r="F22" t="n">
-        <v>288.2066286578618</v>
+        <v>285.9687888746539</v>
       </c>
       <c r="G22" t="n">
-        <v>186.6976311149819</v>
+        <v>185.2166507786745</v>
       </c>
       <c r="H22" t="n">
-        <v>106.6742834152409</v>
+        <v>105.950162525834</v>
       </c>
       <c r="I22" t="n">
-        <v>75.54244531598746</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J22" t="n">
-        <v>127.9242799482671</v>
+        <v>180.7238490400149</v>
       </c>
       <c r="K22" t="n">
-        <v>331.9114628971435</v>
+        <v>384.7110319888913</v>
       </c>
       <c r="L22" t="n">
-        <v>648.4712613456397</v>
+        <v>701.2708304373875</v>
       </c>
       <c r="M22" t="n">
-        <v>992.6283069451888</v>
+        <v>1045.427876036937</v>
       </c>
       <c r="N22" t="n">
-        <v>1334.036683651054</v>
+        <v>1386.836252742801</v>
       </c>
       <c r="O22" t="n">
-        <v>1633.366282571467</v>
+        <v>1686.165851663215</v>
       </c>
       <c r="P22" t="n">
-        <v>1865.973783005127</v>
+        <v>1918.773352096874</v>
       </c>
       <c r="Q22" t="n">
-        <v>2008.460660842303</v>
+        <v>1996.383648249389</v>
       </c>
       <c r="R22" t="n">
-        <v>1984.824042682232</v>
+        <v>1973.503889536219</v>
       </c>
       <c r="S22" t="n">
-        <v>1859.331997591459</v>
+        <v>1848.768703892347</v>
       </c>
       <c r="T22" t="n">
-        <v>1703.759221243387</v>
+        <v>1693.952786991174</v>
       </c>
       <c r="U22" t="n">
-        <v>1480.850193451432</v>
+        <v>1471.80061864612</v>
       </c>
       <c r="V22" t="n">
-        <v>1292.359544327946</v>
+        <v>1284.066828969534</v>
       </c>
       <c r="W22" t="n">
-        <v>1069.136213373386</v>
+        <v>1061.600357461875</v>
       </c>
       <c r="X22" t="n">
-        <v>907.3405015577704</v>
+        <v>900.5615050931598</v>
       </c>
       <c r="Y22" t="n">
-        <v>752.7417614966415</v>
+        <v>746.7196244789313</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1915.286818416581</v>
+        <v>1910.529416178921</v>
       </c>
       <c r="C23" t="n">
-        <v>1612.518140558571</v>
+        <v>1608.517597767811</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.446281034222</v>
+        <v>1317.202597690362</v>
       </c>
       <c r="E23" t="n">
-        <v>1000.851867518378</v>
+        <v>998.3650436214198</v>
       </c>
       <c r="F23" t="n">
-        <v>656.0598018111722</v>
+        <v>654.329837361114</v>
       </c>
       <c r="G23" t="n">
-        <v>307.18119073857</v>
+        <v>306.2080857354122</v>
       </c>
       <c r="H23" t="n">
-        <v>75.79142942973834</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="I23" t="n">
-        <v>75.79142942973834</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J23" t="n">
-        <v>264.6705603887639</v>
+        <v>264.4543148325066</v>
       </c>
       <c r="K23" t="n">
-        <v>598.4899340786105</v>
+        <v>598.2736885223533</v>
       </c>
       <c r="L23" t="n">
-        <v>1049.524147327019</v>
+        <v>1091.687210631942</v>
       </c>
       <c r="M23" t="n">
-        <v>1583.056051998944</v>
+        <v>2026.93011106627</v>
       </c>
       <c r="N23" t="n">
-        <v>2207.529026487799</v>
+        <v>2573.708928125053</v>
       </c>
       <c r="O23" t="n">
-        <v>3087.493676817254</v>
+        <v>3076.68139900439</v>
       </c>
       <c r="P23" t="n">
-        <v>3482.268043174432</v>
+        <v>3471.455765361568</v>
       </c>
       <c r="Q23" t="n">
-        <v>3730.554404930114</v>
+        <v>3719.74212711725</v>
       </c>
       <c r="R23" t="n">
-        <v>3789.571471486917</v>
+        <v>3778.759193674053</v>
       </c>
       <c r="S23" t="n">
-        <v>3745.474642096413</v>
+        <v>3735.41922373045</v>
       </c>
       <c r="T23" t="n">
-        <v>3605.690733563037</v>
+        <v>3596.392174643973</v>
       </c>
       <c r="U23" t="n">
-        <v>3418.354095919274</v>
+        <v>3409.812396447111</v>
       </c>
       <c r="V23" t="n">
-        <v>3153.485047658104</v>
+        <v>3145.700207632842</v>
       </c>
       <c r="W23" t="n">
-        <v>2866.910231470391</v>
+        <v>2859.882250892029</v>
       </c>
       <c r="X23" t="n">
-        <v>2559.638312291713</v>
+        <v>2553.367191160251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2235.692819398302</v>
+        <v>2230.178557713741</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.8231674786634</v>
+        <v>950.6069219224059</v>
       </c>
       <c r="C24" t="n">
-        <v>776.3701381975364</v>
+        <v>776.153892641279</v>
       </c>
       <c r="D24" t="n">
-        <v>627.4357285362853</v>
+        <v>627.2194829800278</v>
       </c>
       <c r="E24" t="n">
-        <v>468.1982735308297</v>
+        <v>467.9820279745722</v>
       </c>
       <c r="F24" t="n">
-        <v>321.6637155577148</v>
+        <v>321.4474700014573</v>
       </c>
       <c r="G24" t="n">
-        <v>185.3006153903334</v>
+        <v>185.084369834076</v>
       </c>
       <c r="H24" t="n">
-        <v>94.79872102820076</v>
+        <v>94.58247547194344</v>
       </c>
       <c r="I24" t="n">
-        <v>75.79142942973834</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J24" t="n">
-        <v>169.4686989203557</v>
+        <v>169.2524533640982</v>
       </c>
       <c r="K24" t="n">
-        <v>407.7328979007029</v>
+        <v>407.5166523444456</v>
       </c>
       <c r="L24" t="n">
-        <v>774.431058213368</v>
+        <v>774.2148126571107</v>
       </c>
       <c r="M24" t="n">
-        <v>1221.707383435684</v>
+        <v>1221.491137879426</v>
       </c>
       <c r="N24" t="n">
-        <v>1695.230426990139</v>
+        <v>1695.014181433881</v>
       </c>
       <c r="O24" t="n">
-        <v>2106.191706408194</v>
+        <v>2105.975460851936</v>
       </c>
       <c r="P24" t="n">
-        <v>2416.691297884297</v>
+        <v>2416.475052328039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2574.332855530896</v>
+        <v>2574.116609974639</v>
       </c>
       <c r="R24" t="n">
-        <v>2574.188502123412</v>
+        <v>2573.972256567154</v>
       </c>
       <c r="S24" t="n">
-        <v>2444.750615616892</v>
+        <v>2444.534370060634</v>
       </c>
       <c r="T24" t="n">
-        <v>2252.107615294747</v>
+        <v>2251.89136973849</v>
       </c>
       <c r="U24" t="n">
-        <v>2024.039768429163</v>
+        <v>2023.823522872905</v>
       </c>
       <c r="V24" t="n">
-        <v>1788.88766019742</v>
+        <v>1788.671414641163</v>
       </c>
       <c r="W24" t="n">
-        <v>1534.650303469218</v>
+        <v>1534.434057912961</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.798803263685</v>
+        <v>1326.582557707428</v>
       </c>
       <c r="Y24" t="n">
-        <v>1119.038504498732</v>
+        <v>1118.822258942474</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637.536119862554</v>
+        <v>632.0218581779933</v>
       </c>
       <c r="C25" t="n">
-        <v>534.7937760170482</v>
+        <v>530.0363737793881</v>
       </c>
       <c r="D25" t="n">
-        <v>450.8709756871137</v>
+        <v>446.870432896354</v>
       </c>
       <c r="E25" t="n">
-        <v>369.1517211871218</v>
+        <v>365.9080378432626</v>
       </c>
       <c r="F25" t="n">
-        <v>288.4556127716126</v>
+        <v>285.9687888746539</v>
       </c>
       <c r="G25" t="n">
-        <v>186.9466152287328</v>
+        <v>185.2166507786745</v>
       </c>
       <c r="H25" t="n">
-        <v>106.9232675289918</v>
+        <v>105.950162525834</v>
       </c>
       <c r="I25" t="n">
-        <v>75.79142942973834</v>
+        <v>75.57518387348105</v>
       </c>
       <c r="J25" t="n">
-        <v>120.9140618766739</v>
+        <v>120.6978163204166</v>
       </c>
       <c r="K25" t="n">
-        <v>324.9012448255504</v>
+        <v>324.6849992692931</v>
       </c>
       <c r="L25" t="n">
-        <v>648.7202454593908</v>
+        <v>641.2447977177893</v>
       </c>
       <c r="M25" t="n">
-        <v>992.8772910589398</v>
+        <v>985.4018433173384</v>
       </c>
       <c r="N25" t="n">
-        <v>1334.285667764805</v>
+        <v>1386.836252742801</v>
       </c>
       <c r="O25" t="n">
-        <v>1698.49184836988</v>
+        <v>1686.165851663215</v>
       </c>
       <c r="P25" t="n">
-        <v>1931.099348803539</v>
+        <v>1918.773352096874</v>
       </c>
       <c r="Q25" t="n">
-        <v>2008.709644956054</v>
+        <v>1996.383648249389</v>
       </c>
       <c r="R25" t="n">
-        <v>1985.073026795983</v>
+        <v>1973.503889536219</v>
       </c>
       <c r="S25" t="n">
-        <v>1859.58098170521</v>
+        <v>1848.768703892347</v>
       </c>
       <c r="T25" t="n">
-        <v>1704.008205357138</v>
+        <v>1693.952786991174</v>
       </c>
       <c r="U25" t="n">
-        <v>1481.099177565183</v>
+        <v>1471.80061864612</v>
       </c>
       <c r="V25" t="n">
-        <v>1292.608528441697</v>
+        <v>1284.066828969534</v>
       </c>
       <c r="W25" t="n">
-        <v>1069.385197487137</v>
+        <v>1061.600357461875</v>
       </c>
       <c r="X25" t="n">
-        <v>907.5894856715213</v>
+        <v>900.5615050931598</v>
       </c>
       <c r="Y25" t="n">
-        <v>752.9907456103924</v>
+        <v>746.7196244789313</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2067.381871868335</v>
+        <v>2067.381871868336</v>
       </c>
       <c r="C26" t="n">
         <v>1740.416253688455</v>
       </c>
       <c r="D26" t="n">
-        <v>1424.147453842235</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E26" t="n">
-        <v>1080.356100004522</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F26" t="n">
-        <v>711.3670939754461</v>
+        <v>711.3670939754464</v>
       </c>
       <c r="G26" t="n">
         <v>338.2915425809742</v>
@@ -6226,28 +6226,28 @@
         <v>82.70484095027261</v>
       </c>
       <c r="J26" t="n">
-        <v>271.583971909298</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K26" t="n">
-        <v>605.4033455991446</v>
+        <v>772.8089946194975</v>
       </c>
       <c r="L26" t="n">
-        <v>1056.437558847553</v>
+        <v>1223.843207867906</v>
       </c>
       <c r="M26" t="n">
-        <v>2006.42078545573</v>
+        <v>1757.375112539831</v>
       </c>
       <c r="N26" t="n">
-        <v>2553.199602514513</v>
+        <v>2304.153929598613</v>
       </c>
       <c r="O26" t="n">
-        <v>3433.164252843967</v>
+        <v>3157.913156416409</v>
       </c>
       <c r="P26" t="n">
-        <v>3827.938619201146</v>
+        <v>3552.687522773587</v>
       </c>
       <c r="Q26" t="n">
-        <v>4076.224980956828</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R26" t="n">
         <v>4135.24204751363</v>
@@ -6265,10 +6265,10 @@
         <v>3402.367862397338</v>
       </c>
       <c r="W26" t="n">
-        <v>3091.596105887755</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X26" t="n">
-        <v>2760.127246387206</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y26" t="n">
         <v>2411.984813171926</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>813.8281136361779</v>
+        <v>758.4993352150545</v>
       </c>
       <c r="C28" t="n">
-        <v>686.8888294688022</v>
+        <v>631.5600510476788</v>
       </c>
       <c r="D28" t="n">
-        <v>578.7690888169977</v>
+        <v>523.4403103958743</v>
       </c>
       <c r="E28" t="n">
-        <v>472.8528939951359</v>
+        <v>417.5241155740125</v>
       </c>
       <c r="F28" t="n">
-        <v>367.9598452577568</v>
+        <v>312.6310668366334</v>
       </c>
       <c r="G28" t="n">
-        <v>242.253907393007</v>
+        <v>186.9251289718836</v>
       </c>
       <c r="H28" t="n">
-        <v>138.033619371396</v>
+        <v>82.70484095027261</v>
       </c>
       <c r="I28" t="n">
         <v>82.70484095027261</v>
@@ -6420,16 +6420,16 @@
         <v>1648.378327729804</v>
       </c>
       <c r="V28" t="n">
-        <v>1435.690738284449</v>
+        <v>1510.359505081678</v>
       </c>
       <c r="W28" t="n">
-        <v>1318.268012226371</v>
+        <v>1262.939233805248</v>
       </c>
       <c r="X28" t="n">
-        <v>1132.275360088885</v>
+        <v>1076.946581667762</v>
       </c>
       <c r="Y28" t="n">
-        <v>953.4796797058864</v>
+        <v>898.150901284763</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>82.70484095027261</v>
       </c>
       <c r="J29" t="n">
-        <v>271.583971909298</v>
+        <v>438.9896209296511</v>
       </c>
       <c r="K29" t="n">
-        <v>605.4033455991446</v>
+        <v>772.8089946194975</v>
       </c>
       <c r="L29" t="n">
-        <v>1056.437558847553</v>
+        <v>1223.843207867906</v>
       </c>
       <c r="M29" t="n">
-        <v>2034.987861677382</v>
+        <v>1757.375112539831</v>
       </c>
       <c r="N29" t="n">
-        <v>2930.191781964631</v>
+        <v>2654.940685537072</v>
       </c>
       <c r="O29" t="n">
-        <v>3433.164252843967</v>
+        <v>3157.913156416409</v>
       </c>
       <c r="P29" t="n">
-        <v>3827.938619201146</v>
+        <v>3552.687522773587</v>
       </c>
       <c r="Q29" t="n">
-        <v>4076.224980956828</v>
+        <v>4011.165725282575</v>
       </c>
       <c r="R29" t="n">
         <v>4135.24204751363</v>
@@ -6548,7 +6548,7 @@
         <v>414.6463094212371</v>
       </c>
       <c r="L30" t="n">
-        <v>781.3444697339027</v>
+        <v>781.3444697339025</v>
       </c>
       <c r="M30" t="n">
         <v>1228.620794956219</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>813.8281136361777</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C31" t="n">
-        <v>686.8888294688021</v>
+        <v>580.9726346469403</v>
       </c>
       <c r="D31" t="n">
-        <v>578.7690888169976</v>
+        <v>472.8528939951358</v>
       </c>
       <c r="E31" t="n">
         <v>472.8528939951358</v>
@@ -6645,28 +6645,28 @@
         <v>2272.776556408155</v>
       </c>
       <c r="R31" t="n">
-        <v>2272.776556408155</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S31" t="n">
-        <v>2123.087570995513</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T31" t="n">
-        <v>1943.31785432557</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U31" t="n">
-        <v>1696.211886211745</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V31" t="n">
-        <v>1565.6882835028</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W31" t="n">
-        <v>1318.268012226371</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X31" t="n">
-        <v>1132.275360088885</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y31" t="n">
-        <v>953.4796797058862</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1074.030137922148</v>
       </c>
       <c r="F32" t="n">
-        <v>706.9664247007511</v>
+        <v>706.9664247007513</v>
       </c>
       <c r="G32" t="n">
         <v>335.8161661139581</v>
@@ -6700,34 +6700,34 @@
         <v>82.15475729093571</v>
       </c>
       <c r="J32" t="n">
-        <v>271.0338882499611</v>
+        <v>438.4395372703142</v>
       </c>
       <c r="K32" t="n">
-        <v>604.8532619398077</v>
+        <v>772.2589109601606</v>
       </c>
       <c r="L32" t="n">
-        <v>1389.403422099214</v>
+        <v>1223.293124208569</v>
       </c>
       <c r="M32" t="n">
-        <v>1922.935326771139</v>
+        <v>1756.825028880494</v>
       </c>
       <c r="N32" t="n">
-        <v>2902.687598997785</v>
+        <v>2303.603845939276</v>
       </c>
       <c r="O32" t="n">
-        <v>3405.660069877122</v>
+        <v>2811.828252359796</v>
       </c>
       <c r="P32" t="n">
-        <v>3800.4344362343</v>
+        <v>3525.183339806742</v>
       </c>
       <c r="Q32" t="n">
-        <v>4048.720797989983</v>
+        <v>3983.66154231573</v>
       </c>
       <c r="R32" t="n">
         <v>4107.737864546785</v>
       </c>
       <c r="S32" t="n">
-        <v>4041.36938764209</v>
+        <v>4041.369387642091</v>
       </c>
       <c r="T32" t="n">
         <v>3879.313831594523</v>
@@ -6782,19 +6782,19 @@
         <v>175.8320267815531</v>
       </c>
       <c r="K33" t="n">
-        <v>414.0962257618999</v>
+        <v>414.0962257619002</v>
       </c>
       <c r="L33" t="n">
-        <v>780.7943860745653</v>
+        <v>780.7943860745656</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.070711296881</v>
+        <v>1228.070711296882</v>
       </c>
       <c r="N33" t="n">
         <v>1701.593754851336</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.55503426939</v>
+        <v>2112.555034269391</v>
       </c>
       <c r="P33" t="n">
         <v>2423.054625745493</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>715.7039558740528</v>
+        <v>799.8009803230868</v>
       </c>
       <c r="C34" t="n">
-        <v>590.6899645143562</v>
+        <v>674.7869889633903</v>
       </c>
       <c r="D34" t="n">
-        <v>484.4955166702309</v>
+        <v>568.592541119265</v>
       </c>
       <c r="E34" t="n">
-        <v>380.5046146560483</v>
+        <v>464.6016391050823</v>
       </c>
       <c r="F34" t="n">
-        <v>277.5368587263483</v>
+        <v>361.6338831753824</v>
       </c>
       <c r="G34" t="n">
-        <v>153.7562136692777</v>
+        <v>237.8532381183117</v>
       </c>
       <c r="H34" t="n">
-        <v>82.15475729093571</v>
+        <v>135.5582429043799</v>
       </c>
       <c r="I34" t="n">
         <v>82.15475729093571</v>
@@ -6882,28 +6882,28 @@
         <v>2287.32230859527</v>
       </c>
       <c r="R34" t="n">
-        <v>2241.414042921008</v>
+        <v>2287.32230859527</v>
       </c>
       <c r="S34" t="n">
-        <v>2093.650350316045</v>
+        <v>2139.558615990306</v>
       </c>
       <c r="T34" t="n">
-        <v>1915.805926453781</v>
+        <v>1999.902950902815</v>
       </c>
       <c r="U34" t="n">
-        <v>1670.625251147635</v>
+        <v>1754.722275596669</v>
       </c>
       <c r="V34" t="n">
-        <v>1459.862954509959</v>
+        <v>1543.959978958993</v>
       </c>
       <c r="W34" t="n">
-        <v>1214.367976041209</v>
+        <v>1298.465000490243</v>
       </c>
       <c r="X34" t="n">
-        <v>1030.300616711402</v>
+        <v>1114.397641160436</v>
       </c>
       <c r="Y34" t="n">
-        <v>853.4302291360821</v>
+        <v>937.5272535851161</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1886.94776046765</v>
+        <v>1891.705162705311</v>
       </c>
       <c r="C35" t="n">
-        <v>1588.687569101515</v>
+        <v>1592.688111892275</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.124196069041</v>
+        <v>1304.3678794129</v>
       </c>
       <c r="E35" t="n">
-        <v>986.0382690450738</v>
+        <v>988.5250929420324</v>
       </c>
       <c r="F35" t="n">
-        <v>645.7546898297428</v>
+        <v>647.484654279801</v>
       </c>
       <c r="G35" t="n">
-        <v>301.3845652490158</v>
+        <v>302.3576702521736</v>
       </c>
       <c r="H35" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="I35" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="J35" t="n">
-        <v>263.3824213910851</v>
+        <v>431.0043159676954</v>
       </c>
       <c r="K35" t="n">
-        <v>597.2017950809316</v>
+        <v>764.8236896575419</v>
       </c>
       <c r="L35" t="n">
-        <v>1048.23600832934</v>
+        <v>1215.857902905951</v>
       </c>
       <c r="M35" t="n">
-        <v>1970.214227426079</v>
+        <v>1919.088461133812</v>
       </c>
       <c r="N35" t="n">
-        <v>2516.993044484861</v>
+        <v>2465.867278192594</v>
       </c>
       <c r="O35" t="n">
-        <v>3019.965515364198</v>
+        <v>2968.839749071931</v>
       </c>
       <c r="P35" t="n">
-        <v>3414.739881721376</v>
+        <v>3363.614115429109</v>
       </c>
       <c r="Q35" t="n">
-        <v>3663.026243477058</v>
+        <v>3611.900477184792</v>
       </c>
       <c r="R35" t="n">
-        <v>3725.164521602983</v>
+        <v>3735.976799415847</v>
       </c>
       <c r="S35" t="n">
-        <v>3685.576178704354</v>
+        <v>3695.631597070318</v>
       </c>
       <c r="T35" t="n">
-        <v>3550.300756662853</v>
+        <v>3559.599315581916</v>
       </c>
       <c r="U35" t="n">
-        <v>3367.472605510965</v>
+        <v>3376.014304983129</v>
       </c>
       <c r="V35" t="n">
-        <v>3107.112043741671</v>
+        <v>3114.896883766934</v>
       </c>
       <c r="W35" t="n">
-        <v>2825.045714045834</v>
+        <v>2832.073694624196</v>
       </c>
       <c r="X35" t="n">
-        <v>2522.282281359031</v>
+        <v>2528.553402490492</v>
       </c>
       <c r="Y35" t="n">
-        <v>2202.845274957495</v>
+        <v>2208.359536642056</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>949.5350284809848</v>
+        <v>949.7512740372421</v>
       </c>
       <c r="C36" t="n">
-        <v>775.0819991998578</v>
+        <v>775.2982447561151</v>
       </c>
       <c r="D36" t="n">
-        <v>626.1475895386066</v>
+        <v>626.3638350948638</v>
       </c>
       <c r="E36" t="n">
-        <v>466.9101345331511</v>
+        <v>467.1263800894084</v>
       </c>
       <c r="F36" t="n">
-        <v>320.3755765600361</v>
+        <v>320.5918221162933</v>
       </c>
       <c r="G36" t="n">
-        <v>184.0124763926542</v>
+        <v>184.2287219489114</v>
       </c>
       <c r="H36" t="n">
-        <v>93.5105820305217</v>
+        <v>93.72682758677897</v>
       </c>
       <c r="I36" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="J36" t="n">
-        <v>168.180559922677</v>
+        <v>168.3968054789343</v>
       </c>
       <c r="K36" t="n">
-        <v>406.4447589030238</v>
+        <v>406.6610044592814</v>
       </c>
       <c r="L36" t="n">
-        <v>773.1429192156892</v>
+        <v>773.3591647719468</v>
       </c>
       <c r="M36" t="n">
-        <v>1220.419244438005</v>
+        <v>1220.635489994263</v>
       </c>
       <c r="N36" t="n">
-        <v>1693.94228799246</v>
+        <v>1694.158533548717</v>
       </c>
       <c r="O36" t="n">
-        <v>2104.903567410514</v>
+        <v>2105.119812966772</v>
       </c>
       <c r="P36" t="n">
-        <v>2415.403158886617</v>
+        <v>2415.619404442875</v>
       </c>
       <c r="Q36" t="n">
-        <v>2573.044716533217</v>
+        <v>2573.260962089475</v>
       </c>
       <c r="R36" t="n">
-        <v>2572.900363125732</v>
+        <v>2573.11660868199</v>
       </c>
       <c r="S36" t="n">
-        <v>2443.462476619212</v>
+        <v>2443.67872217547</v>
       </c>
       <c r="T36" t="n">
-        <v>2250.819476297068</v>
+        <v>2251.035721853325</v>
       </c>
       <c r="U36" t="n">
-        <v>2022.751629431484</v>
+        <v>2022.967874987741</v>
       </c>
       <c r="V36" t="n">
-        <v>1787.599521199741</v>
+        <v>1787.815766755998</v>
       </c>
       <c r="W36" t="n">
-        <v>1533.362164471539</v>
+        <v>1533.578410027797</v>
       </c>
       <c r="X36" t="n">
-        <v>1325.510664266007</v>
+        <v>1325.726909822264</v>
       </c>
       <c r="Y36" t="n">
-        <v>1117.750365501053</v>
+        <v>1117.96661105731</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>604.6885754217475</v>
+        <v>610.2028371063082</v>
       </c>
       <c r="C37" t="n">
-        <v>506.4547180681171</v>
+        <v>511.2121203057773</v>
       </c>
       <c r="D37" t="n">
-        <v>427.040404230058</v>
+        <v>431.0409470208177</v>
       </c>
       <c r="E37" t="n">
-        <v>349.8296362219415</v>
+        <v>353.0733195658007</v>
       </c>
       <c r="F37" t="n">
-        <v>273.6420142983077</v>
+        <v>276.1288381952665</v>
       </c>
       <c r="G37" t="n">
-        <v>176.6415032473033</v>
+        <v>178.3714676973616</v>
       </c>
       <c r="H37" t="n">
-        <v>101.1266420394377</v>
+        <v>102.0997470425955</v>
       </c>
       <c r="I37" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="J37" t="n">
-        <v>119.6259228789952</v>
+        <v>119.8421684352525</v>
       </c>
       <c r="K37" t="n">
-        <v>323.6131058278716</v>
+        <v>323.8293513841289</v>
       </c>
       <c r="L37" t="n">
-        <v>640.1729042763677</v>
+        <v>640.389149832625</v>
       </c>
       <c r="M37" t="n">
-        <v>984.3299498759167</v>
+        <v>984.546195432174</v>
       </c>
       <c r="N37" t="n">
-        <v>1325.738326581781</v>
+        <v>1325.954572138039</v>
       </c>
       <c r="O37" t="n">
-        <v>1625.067925502194</v>
+        <v>1625.284171058452</v>
       </c>
       <c r="P37" t="n">
-        <v>1857.675425935854</v>
+        <v>1857.891671492112</v>
       </c>
       <c r="Q37" t="n">
-        <v>1935.285722088368</v>
+        <v>1947.611718795034</v>
       </c>
       <c r="R37" t="n">
-        <v>1916.157590420173</v>
+        <v>1927.726727679938</v>
       </c>
       <c r="S37" t="n">
-        <v>1795.174031821276</v>
+        <v>1805.986309634141</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.109741965079</v>
+        <v>1654.165160331043</v>
       </c>
       <c r="U37" t="n">
-        <v>1425.709200664999</v>
+        <v>1435.007759584062</v>
       </c>
       <c r="V37" t="n">
-        <v>1241.727038033389</v>
+        <v>1250.268737505552</v>
       </c>
       <c r="W37" t="n">
-        <v>1023.012193570705</v>
+        <v>1030.797033595967</v>
       </c>
       <c r="X37" t="n">
-        <v>865.7249682469641</v>
+        <v>872.7529488253258</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.6347146777106</v>
+        <v>721.9058358091718</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1886.94776046765</v>
+        <v>1891.705162705311</v>
       </c>
       <c r="C38" t="n">
-        <v>1588.687569101515</v>
+        <v>1592.688111892275</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.124196069041</v>
+        <v>1304.367879412901</v>
       </c>
       <c r="E38" t="n">
-        <v>986.0382690450738</v>
+        <v>988.5250929420329</v>
       </c>
       <c r="F38" t="n">
-        <v>645.7546898297428</v>
+        <v>647.4846542798014</v>
       </c>
       <c r="G38" t="n">
-        <v>301.3845652490158</v>
+        <v>302.3576702521736</v>
       </c>
       <c r="H38" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="I38" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="J38" t="n">
-        <v>334.0459889395676</v>
+        <v>431.0043159676954</v>
       </c>
       <c r="K38" t="n">
-        <v>988.7693210748671</v>
+        <v>764.8236896575419</v>
       </c>
       <c r="L38" t="n">
-        <v>1439.803534323276</v>
+        <v>1215.857902905951</v>
       </c>
       <c r="M38" t="n">
-        <v>1973.335438995201</v>
+        <v>1749.389807577875</v>
       </c>
       <c r="N38" t="n">
-        <v>2520.114256053983</v>
+        <v>2296.168624636658</v>
       </c>
       <c r="O38" t="n">
-        <v>3023.08672693332</v>
+        <v>2799.141095515994</v>
       </c>
       <c r="P38" t="n">
-        <v>3417.861093290498</v>
+        <v>3193.915461873173</v>
       </c>
       <c r="Q38" t="n">
-        <v>3666.14745504618</v>
+        <v>3611.900477184791</v>
       </c>
       <c r="R38" t="n">
-        <v>3725.164521602983</v>
+        <v>3735.976799415846</v>
       </c>
       <c r="S38" t="n">
-        <v>3685.576178704354</v>
+        <v>3695.631597070318</v>
       </c>
       <c r="T38" t="n">
-        <v>3550.300756662853</v>
+        <v>3559.599315581916</v>
       </c>
       <c r="U38" t="n">
-        <v>3367.472605510965</v>
+        <v>3376.014304983129</v>
       </c>
       <c r="V38" t="n">
-        <v>3107.112043741671</v>
+        <v>3114.896883766934</v>
       </c>
       <c r="W38" t="n">
-        <v>2825.045714045834</v>
+        <v>2832.073694624196</v>
       </c>
       <c r="X38" t="n">
-        <v>2522.282281359031</v>
+        <v>2528.553402490492</v>
       </c>
       <c r="Y38" t="n">
-        <v>2202.845274957495</v>
+        <v>2208.359536642056</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>949.5350284809848</v>
+        <v>949.7512740372421</v>
       </c>
       <c r="C39" t="n">
-        <v>775.0819991998578</v>
+        <v>775.2982447561151</v>
       </c>
       <c r="D39" t="n">
-        <v>626.1475895386066</v>
+        <v>626.3638350948638</v>
       </c>
       <c r="E39" t="n">
-        <v>466.9101345331511</v>
+        <v>467.1263800894084</v>
       </c>
       <c r="F39" t="n">
-        <v>320.3755765600361</v>
+        <v>320.5918221162933</v>
       </c>
       <c r="G39" t="n">
-        <v>184.0124763926542</v>
+        <v>184.2287219489114</v>
       </c>
       <c r="H39" t="n">
-        <v>93.5105820305217</v>
+        <v>93.72682758677897</v>
       </c>
       <c r="I39" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="J39" t="n">
-        <v>168.180559922677</v>
+        <v>168.3968054789343</v>
       </c>
       <c r="K39" t="n">
-        <v>406.4447589030241</v>
+        <v>406.6610044592814</v>
       </c>
       <c r="L39" t="n">
-        <v>773.1429192156892</v>
+        <v>773.3591647719468</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.419244438005</v>
+        <v>1220.635489994263</v>
       </c>
       <c r="N39" t="n">
-        <v>1693.94228799246</v>
+        <v>1694.158533548717</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.903567410514</v>
+        <v>2105.119812966772</v>
       </c>
       <c r="P39" t="n">
-        <v>2415.403158886617</v>
+        <v>2415.619404442875</v>
       </c>
       <c r="Q39" t="n">
-        <v>2573.044716533217</v>
+        <v>2573.260962089475</v>
       </c>
       <c r="R39" t="n">
-        <v>2572.900363125732</v>
+        <v>2573.11660868199</v>
       </c>
       <c r="S39" t="n">
-        <v>2443.462476619212</v>
+        <v>2443.67872217547</v>
       </c>
       <c r="T39" t="n">
-        <v>2250.819476297068</v>
+        <v>2251.035721853325</v>
       </c>
       <c r="U39" t="n">
-        <v>2022.751629431484</v>
+        <v>2022.967874987741</v>
       </c>
       <c r="V39" t="n">
-        <v>1787.599521199741</v>
+        <v>1787.815766755998</v>
       </c>
       <c r="W39" t="n">
-        <v>1533.362164471539</v>
+        <v>1533.578410027797</v>
       </c>
       <c r="X39" t="n">
-        <v>1325.510664266007</v>
+        <v>1325.726909822264</v>
       </c>
       <c r="Y39" t="n">
-        <v>1117.750365501053</v>
+        <v>1117.96661105731</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>604.6885754217475</v>
+        <v>610.2028371063082</v>
       </c>
       <c r="C40" t="n">
-        <v>506.4547180681171</v>
+        <v>511.2121203057773</v>
       </c>
       <c r="D40" t="n">
-        <v>427.040404230058</v>
+        <v>431.0409470208177</v>
       </c>
       <c r="E40" t="n">
-        <v>349.8296362219415</v>
+        <v>353.0733195658007</v>
       </c>
       <c r="F40" t="n">
-        <v>273.6420142983077</v>
+        <v>276.1288381952665</v>
       </c>
       <c r="G40" t="n">
-        <v>176.6415032473033</v>
+        <v>178.3714676973616</v>
       </c>
       <c r="H40" t="n">
-        <v>101.1266420394377</v>
+        <v>102.0997470425955</v>
       </c>
       <c r="I40" t="n">
-        <v>74.50329043205966</v>
+        <v>74.71953598831693</v>
       </c>
       <c r="J40" t="n">
-        <v>119.6259228789952</v>
+        <v>119.8421684352525</v>
       </c>
       <c r="K40" t="n">
-        <v>323.6131058278716</v>
+        <v>335.9391025345365</v>
       </c>
       <c r="L40" t="n">
-        <v>640.1729042763677</v>
+        <v>652.4989009830326</v>
       </c>
       <c r="M40" t="n">
-        <v>984.3299498759168</v>
+        <v>996.6559465825817</v>
       </c>
       <c r="N40" t="n">
-        <v>1325.738326581781</v>
+        <v>1338.064323288446</v>
       </c>
       <c r="O40" t="n">
-        <v>1625.067925502195</v>
+        <v>1637.39392220886</v>
       </c>
       <c r="P40" t="n">
-        <v>1857.675425935854</v>
+        <v>1870.001422642519</v>
       </c>
       <c r="Q40" t="n">
-        <v>1935.285722088369</v>
+        <v>1947.611718795034</v>
       </c>
       <c r="R40" t="n">
-        <v>1916.157590420174</v>
+        <v>1927.726727679938</v>
       </c>
       <c r="S40" t="n">
-        <v>1795.174031821277</v>
+        <v>1805.986309634141</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.109741965079</v>
+        <v>1654.165160331043</v>
       </c>
       <c r="U40" t="n">
-        <v>1425.709200664999</v>
+        <v>1435.007759584062</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.727038033389</v>
+        <v>1250.268737505552</v>
       </c>
       <c r="W40" t="n">
-        <v>1023.012193570705</v>
+        <v>1030.797033595967</v>
       </c>
       <c r="X40" t="n">
-        <v>865.7249682469641</v>
+        <v>872.7529488253258</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.6347146777106</v>
+        <v>721.9058358091718</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.472742224994</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232656</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E41" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F41" t="n">
-        <v>684.2689010822731</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G41" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218343</v>
@@ -7429,10 +7429,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
@@ -7447,16 +7447,16 @@
         <v>3262.76478608434</v>
       </c>
       <c r="V41" t="n">
-        <v>2992.49758888778</v>
+        <v>3081.513828560669</v>
       </c>
       <c r="W41" t="n">
-        <v>2687.178566565739</v>
+        <v>2776.194806238628</v>
       </c>
       <c r="X41" t="n">
-        <v>2361.162441252732</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y41" t="n">
-        <v>2018.472742224994</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="42">
@@ -7575,7 +7575,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1344.120404724782</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C44" t="n">
-        <v>1022.607520732444</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D44" t="n">
-        <v>1022.607520732444</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E44" t="n">
-        <v>684.2689010822731</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F44" t="n">
         <v>684.2689010822731</v>
@@ -7651,10 +7651,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7681,19 +7681,19 @@
         <v>3104.236671416635</v>
       </c>
       <c r="U44" t="n">
-        <v>2898.155827638544</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="V44" t="n">
-        <v>2614.542573243047</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="W44" t="n">
-        <v>2351.976436181576</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X44" t="n">
-        <v>2025.960310868569</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y44" t="n">
-        <v>1683.270611840831</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="45">
@@ -7730,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C46" t="n">
         <v>637.9796998254608</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.4396646861023</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.1526054916175</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,13 +8616,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.7607220229497</v>
+        <v>141.4829019929816</v>
       </c>
       <c r="M10" t="n">
         <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
         <v>145.3325841935542</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>42.35024886165877</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.43291849743754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.43291849743758</v>
+        <v>42.35024886165877</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>126.777357104864</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,16 +9172,16 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>405.3594506196164</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>41.59622140704766</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>58.71423283219954</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4390708909359091</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-3.894781112710786e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>42.80738268806084</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>405.7686825882863</v>
       </c>
       <c r="N23" t="n">
-        <v>78.47894689906286</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>420.6579009457095</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>354.330056503494</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>351.9445487156222</v>
+        <v>354.3300565034939</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>336.8847948595933</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>5.304985395134622</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>392.3700145705189</v>
+        <v>171.4127813696332</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.152738958709001</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.37734095806309</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>171.4127813696326</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>329.1638895864004</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.92927048376919</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.813569600288588</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>27.37297241156972</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>12.07821935805424</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>12.07821935805407</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54.77549063691217</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>73.92207912925673</v>
       </c>
       <c r="W28" t="n">
-        <v>128.6975697661687</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>23.84053689252508</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.35522289712138</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>81.34234686904699</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>30.38660344723388</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>52.86945075730979</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>45.44918301751902</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>37.80687118702468</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>13.21259662694786</v>
+        <v>101.3386739031082</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>126.8912165828107</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>42.32535640796402</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>606305.7208539004</v>
+        <v>605485.4434422491</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>606305.7208539005</v>
+        <v>605485.443442249</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658053.052577802</v>
+        <v>658846.5266685034</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658053.0525778019</v>
+        <v>658846.5266685034</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659166.0130956344</v>
+        <v>658846.5266685034</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666986.280076276</v>
+        <v>666986.2800762759</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>667018.7853320565</v>
+        <v>667018.7853320566</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657262.8853128519</v>
+        <v>657582.371739983</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657262.8853128519</v>
+        <v>657582.371739983</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>798794.4302491122</v>
+        <v>798794.430249112</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491124</v>
+        <v>798794.430249112</v>
       </c>
       <c r="D2" t="n">
-        <v>799861.7300691408</v>
+        <v>799861.7300691409</v>
       </c>
       <c r="E2" t="n">
-        <v>749330.0084419709</v>
+        <v>748639.1300807478</v>
       </c>
       <c r="F2" t="n">
-        <v>749330.008441971</v>
+        <v>748639.1300807477</v>
       </c>
       <c r="G2" t="n">
-        <v>799578.3350132975</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="H2" t="n">
-        <v>799578.3350132975</v>
+        <v>800515.725617676</v>
       </c>
       <c r="I2" t="n">
         <v>800515.725617676</v>
       </c>
       <c r="J2" t="n">
-        <v>797504.202485147</v>
+        <v>797504.2024851475</v>
       </c>
       <c r="K2" t="n">
-        <v>797504.2024851474</v>
+        <v>797504.2024851476</v>
       </c>
       <c r="L2" t="n">
-        <v>798567.5339492906</v>
+        <v>798567.5339492909</v>
       </c>
       <c r="M2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="N2" t="n">
         <v>800515.7256176764</v>
       </c>
       <c r="O2" t="n">
+        <v>745417.7346425961</v>
+      </c>
+      <c r="P2" t="n">
         <v>745417.7346425962</v>
-      </c>
-      <c r="P2" t="n">
-        <v>745417.7346425963</v>
       </c>
     </row>
     <row r="3">
@@ -26374,31 +26374,31 @@
         <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
-        <v>1163173.487483936</v>
+        <v>1162488.598075476</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>42223.67283033865</v>
+        <v>43563.97630336855</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>827.6263064093188</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41026.7906084364</v>
+        <v>41134.59983050846</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16370.24316206962</v>
+        <v>16969.6758440148</v>
       </c>
       <c r="M3" t="n">
-        <v>206087.2139042974</v>
+        <v>205589.7634658727</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>58537.08319119102</v>
+        <v>58264.8810318085</v>
       </c>
       <c r="F4" t="n">
-        <v>58537.08319119101</v>
+        <v>58264.88103180848</v>
       </c>
       <c r="G4" t="n">
-        <v>82100.44489788872</v>
+        <v>82621.82837343641</v>
       </c>
       <c r="H4" t="n">
-        <v>82100.44489788869</v>
+        <v>82621.82837343642</v>
       </c>
       <c r="I4" t="n">
-        <v>82469.7714841853</v>
+        <v>82621.82837343644</v>
       </c>
       <c r="J4" t="n">
-        <v>75805.00953995014</v>
+        <v>75805.00953995016</v>
       </c>
       <c r="K4" t="n">
         <v>75805.00953995014</v>
@@ -26450,10 +26450,10 @@
         <v>76828.59500547312</v>
       </c>
       <c r="M4" t="n">
-        <v>83375.54921344895</v>
+        <v>83223.49232419782</v>
       </c>
       <c r="N4" t="n">
-        <v>83375.54921344892</v>
+        <v>83223.4923241978</v>
       </c>
       <c r="O4" t="n">
         <v>56995.6694835739</v>
@@ -26478,19 +26478,19 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>79045.25103356689</v>
+        <v>78905.78571450649</v>
       </c>
       <c r="F5" t="n">
-        <v>79045.25103356689</v>
+        <v>78905.78571450651</v>
       </c>
       <c r="G5" t="n">
-        <v>86678.59187232458</v>
+        <v>86766.46530869277</v>
       </c>
       <c r="H5" t="n">
-        <v>86678.59187232458</v>
+        <v>86766.46530869277</v>
       </c>
       <c r="I5" t="n">
-        <v>86867.81979877525</v>
+        <v>86766.46530869277</v>
       </c>
       <c r="J5" t="n">
         <v>90108.14210422119</v>
@@ -26502,10 +26502,10 @@
         <v>89850.31738976344</v>
       </c>
       <c r="M5" t="n">
-        <v>86264.06787191606</v>
+        <v>86365.42236199853</v>
       </c>
       <c r="N5" t="n">
-        <v>86264.06787191606</v>
+        <v>86365.42236199853</v>
       </c>
       <c r="O5" t="n">
         <v>78255.49332178176</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339643.6910830087</v>
+        <v>339599.5553043273</v>
       </c>
       <c r="C6" t="n">
-        <v>339643.6910830089</v>
+        <v>339599.5553043273</v>
       </c>
       <c r="D6" t="n">
-        <v>338259.2931297625</v>
+        <v>338242.5240131335</v>
       </c>
       <c r="E6" t="n">
-        <v>-551425.8132667234</v>
+        <v>-552350.3038573742</v>
       </c>
       <c r="F6" t="n">
-        <v>611747.6742172132</v>
+        <v>610138.294218101</v>
       </c>
       <c r="G6" t="n">
-        <v>588575.6254127455</v>
+        <v>587563.4556321781</v>
       </c>
       <c r="H6" t="n">
-        <v>630799.2982430842</v>
+        <v>631127.4319355468</v>
       </c>
       <c r="I6" t="n">
-        <v>630350.5080283061</v>
+        <v>631127.4319355468</v>
       </c>
       <c r="J6" t="n">
-        <v>590564.2602325393</v>
+        <v>590379.2324686081</v>
       </c>
       <c r="K6" t="n">
-        <v>631591.0508409761</v>
+        <v>631513.8322991166</v>
       </c>
       <c r="L6" t="n">
-        <v>615518.3783919845</v>
+        <v>614868.9920775167</v>
       </c>
       <c r="M6" t="n">
-        <v>424788.8946280137</v>
+        <v>425337.0474656074</v>
       </c>
       <c r="N6" t="n">
-        <v>630876.1085323114</v>
+        <v>630926.81093148</v>
       </c>
       <c r="O6" t="n">
-        <v>610166.5718372406</v>
+        <v>608753.8028378795</v>
       </c>
       <c r="P6" t="n">
-        <v>610166.5718372407</v>
+        <v>608753.8028378796</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="H2" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="I2" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="J2" t="n">
         <v>41.57692977292593</v>
@@ -26715,13 +26715,13 @@
         <v>41.57692977292594</v>
       </c>
       <c r="L2" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="M2" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="N2" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859254</v>
@@ -26749,7 +26749,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593299</v>
@@ -26798,19 +26798,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>844.3908914513905</v>
+        <v>842.0970539668443</v>
       </c>
       <c r="F4" t="n">
-        <v>844.3908914513905</v>
+        <v>842.0970539668444</v>
       </c>
       <c r="G4" t="n">
-        <v>944.2805664498433</v>
+        <v>944.6897984185132</v>
       </c>
       <c r="H4" t="n">
-        <v>944.2805664498433</v>
+        <v>944.6897984185132</v>
       </c>
       <c r="I4" t="n">
-        <v>947.3928678717292</v>
+        <v>944.6897984185132</v>
       </c>
       <c r="J4" t="n">
         <v>1033.810511878408</v>
@@ -26822,10 +26822,10 @@
         <v>1026.934466136696</v>
       </c>
       <c r="M4" t="n">
-        <v>931.2911304007457</v>
+        <v>933.9941998539617</v>
       </c>
       <c r="N4" t="n">
-        <v>931.2911304007457</v>
+        <v>933.9941998539616</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.55676407298466</v>
+        <v>19.30605492541613</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,16 +26931,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.02016569994129</v>
+        <v>22.2708748475098</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.46280395258703</v>
+        <v>21.2120948050185</v>
       </c>
       <c r="M2" t="n">
-        <v>26.51233266600551</v>
+        <v>25.76304181357403</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>837.5148457096791</v>
+        <v>835.2210082251329</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99.88967499845273</v>
+        <v>102.5927444516688</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3.112301421885894</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>86.41764400667842</v>
+        <v>89.12071345989443</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>741.8715099737285</v>
+        <v>742.2807419423983</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.55676407298466</v>
+        <v>19.30605492541613</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.02016569994129</v>
+        <v>22.2708748475098</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>837.5148457096791</v>
+        <v>835.2210082251329</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>99.88967499845273</v>
+        <v>102.5927444516688</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>359.2164706817081</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.0543243305503</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>363.6746795891696</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,25 +27937,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>141.3886444753393</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>139.7593826303423</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>164.8071253621264</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27994,10 +27994,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>172.9559344402259</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>145.2804926640194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>139.5579169048577</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28064,16 +28064,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>279.4429836147795</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>283.1880179823981</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28347,7 +28347,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859286</v>
       </c>
       <c r="K16" t="n">
         <v>46.97513661859254</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="C17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="D17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="E17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="F17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="G17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="H17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292592</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="T17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="U17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="V17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="W17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="X17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
     </row>
     <row r="18">
@@ -28721,37 +28721,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="C19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="D19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="E19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="F19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="G19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="H19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="I19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.33252745994352</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>65.53190069157719</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28766,31 +28766,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>60.63235628242263</v>
       </c>
       <c r="R19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="S19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="T19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="U19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="V19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="W19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="X19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="C20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="D20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="E20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="F20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="G20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="H20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292592</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="T20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="U20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="V20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="W20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="X20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="Y20" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
     </row>
     <row r="21">
@@ -28958,31 +28958,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="C22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="D22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="E22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="F22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="G22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="H22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="I22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="J22" t="n">
-        <v>7.332527459943449</v>
+        <v>60.63235628242245</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29003,31 +29003,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.53190069157719</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="S22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="T22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="U22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="V22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="W22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="X22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="C23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="D23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="E23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="F23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="G23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="H23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292592</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="T23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="U23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="V23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="W23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="X23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="Y23" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="C25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="D25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="E25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="F25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="G25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="H25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="I25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29225,16 +29225,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>7.332527459943549</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>60.63235628242251</v>
       </c>
       <c r="O25" t="n">
-        <v>65.53190069157719</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29243,28 +29243,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="S25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="T25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="U25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="V25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="W25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="X25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.53190069157719</v>
+        <v>66.28119154400866</v>
       </c>
     </row>
     <row r="26">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="C32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="D32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="E32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="F32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="G32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="H32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="T32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="U32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="V32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="W32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="X32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="Y32" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="C34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="D34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="E34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="F34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="G34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="H34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="I34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="J34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="K34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="L34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="M34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="N34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="O34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="P34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="R34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="S34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="T34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="U34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="V34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="W34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="X34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.48296965252832</v>
+        <v>43.48296965252831</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="C35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="D35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="E35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="F35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="G35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="H35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="T35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="U35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="V35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="W35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="X35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="C37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="D37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="E37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="F37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="G37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="H37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="I37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30188,31 +30188,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>12.23207186909873</v>
       </c>
       <c r="R37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="S37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="T37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="U37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="V37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="W37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="X37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="C38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="D38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="E38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="F38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="G38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="H38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="T38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="U38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="V38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="W38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="X38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
     </row>
     <row r="39">
@@ -30380,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="D40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="E40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="F40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="G40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="H40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="I40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>12.23207186909863</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="S40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="T40" t="n">
-        <v>69.99530231853319</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="U40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="V40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="W40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="X40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.99530231853383</v>
+        <v>69.24601146610235</v>
       </c>
     </row>
     <row r="41">
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32329,7 +32329,7 @@
         <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970241</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
         <v>447.6103584002928</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905542</v>
@@ -33268,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,13 +35336,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="M10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
         <v>6.876045741711437</v>
@@ -35427,13 +35427,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>441.1122350810306</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>111.0461170396623</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>242.2199194661501</v>
+        <v>233.1372498303714</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165911</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35816,7 +35816,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>317.5643580735767</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554006</v>
@@ -35892,16 +35892,16 @@
         <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>944.2805664498433</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>593.8980568199592</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037196</v>
@@ -35977,7 +35977,7 @@
         <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525797</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859626</v>
@@ -36044,10 +36044,10 @@
         <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
-        <v>213.3801870042631</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>385.2892728617754</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934839</v>
@@ -36062,7 +36062,7 @@
         <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>139.0265948203163</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>249.5012338009122</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923323</v>
@@ -36135,10 +36135,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>399.2010571103079</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037196</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.9109440730097</v>
+        <v>106.2107728954887</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36299,7 +36299,7 @@
         <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>143.9261392294709</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>498.3974970803931</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>944.6897984185132</v>
       </c>
       <c r="N23" t="n">
-        <v>630.7807823119743</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509647</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
         <v>398.761986219372</v>
@@ -36521,16 +36521,16 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>327.0898996301418</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>405.4893024499627</v>
       </c>
       <c r="O25" t="n">
-        <v>367.8850309142171</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451105</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36603,22 +36603,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>959.5790167759362</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>862.3830573917131</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36840,10 +36840,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>904.2463841285337</v>
+        <v>906.6318919164054</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36852,10 +36852,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>792.4749092519255</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>513.3579862833537</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37314,7 +37314,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>931.2911304007457</v>
+        <v>710.33389719986</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>62.76593750093378</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37484,7 +37484,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>90.62631040699239</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>262.1643419267756</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37563,10 +37563,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>422.2070861733521</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37703,7 +37703,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>218.2797314134182</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37797,13 +37797,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
